--- a/АВ-тест/Калькулятор А-В теста.xlsx
+++ b/АВ-тест/Калькулятор А-В теста.xlsx
@@ -1,41 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ПИТОН\Диплом\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD53C49E-4BA5-46F2-9F8C-055E1E6ACD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Успешные ТТ" sheetId="1" r:id="rId1"/>
     <sheet name="Неуспешные ТТ" sheetId="2" r:id="rId2"/>
     <sheet name="Нейтральные ТТ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
   <si>
     <t>city</t>
   </si>
@@ -131,31 +112,13 @@
   </si>
   <si>
     <t>Нейтральный</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Количество потенциальных клиентов-покупателей за период времени</t>
-  </si>
-  <si>
-    <t>Выгода</t>
-  </si>
-  <si>
-    <t>Выгода (потери)</t>
-  </si>
-  <si>
-    <t>MDE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,45 +134,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,72 +166,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -335,9 +225,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,27 +259,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,27 +293,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -614,31 +468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -699,38 +536,34 @@
         <v>337</v>
       </c>
       <c r="F2">
-        <v>2929.0451977401131</v>
+        <v>2929.045197740113</v>
       </c>
       <c r="G2">
         <v>2252.35</v>
       </c>
       <c r="H2">
-        <v>676.69519774011314</v>
+        <v>676.6951977401131</v>
       </c>
       <c r="I2">
-        <v>3201.0981368955931</v>
+        <v>3201.098136895593</v>
       </c>
       <c r="J2">
-        <v>2975.5447261988988</v>
+        <v>2975.544726198899</v>
       </c>
       <c r="K2">
-        <v>2.0035983261498909</v>
+        <v>2.003598326149891</v>
       </c>
       <c r="L2">
-        <v>4.5918053669135518E-2</v>
+        <v>0.04591805366913552</v>
       </c>
       <c r="M2">
-        <v>7.4363387616399662E-3</v>
+        <v>0.007436338761639966</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="4">
-        <f>$G$16*M2*H2</f>
-        <v>5032.1347287704248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -747,25 +580,25 @@
         <v>4643</v>
       </c>
       <c r="F3">
-        <v>2506.6168059832821</v>
+        <v>2506.616805983282</v>
       </c>
       <c r="G3">
         <v>1972.847679324894</v>
       </c>
       <c r="H3">
-        <v>533.76912665838768</v>
+        <v>533.7691266583877</v>
       </c>
       <c r="I3">
         <v>2842.182948460033</v>
       </c>
       <c r="J3">
-        <v>2565.8782422552608</v>
+        <v>2565.878242255261</v>
       </c>
       <c r="K3">
         <v>6.722229837176438</v>
       </c>
       <c r="L3">
-        <v>2.0059224232258572E-11</v>
+        <v>2.005922423225857E-11</v>
       </c>
       <c r="M3">
         <v>0.1024537711284699</v>
@@ -773,12 +606,8 @@
       <c r="N3" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="4">
-        <f t="shared" ref="O3:O12" si="0">$G$16*M3*H3</f>
-        <v>54686.659938101708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -795,10 +624,10 @@
         <v>727</v>
       </c>
       <c r="F4">
-        <v>2128.5567567567568</v>
+        <v>2128.556756756757</v>
       </c>
       <c r="G4">
-        <v>1394.6554621848741</v>
+        <v>1394.655462184874</v>
       </c>
       <c r="H4">
         <v>733.901294571883</v>
@@ -807,26 +636,22 @@
         <v>2437.376458023035</v>
       </c>
       <c r="J4">
-        <v>2338.4617787149891</v>
+        <v>2338.461778714989</v>
       </c>
       <c r="K4">
-        <v>4.1402972158827431</v>
+        <v>4.140297215882743</v>
       </c>
       <c r="L4">
-        <v>3.876566044301065E-5</v>
+        <v>3.876566044301065E-05</v>
       </c>
       <c r="M4">
-        <v>1.604219074098592E-2</v>
+        <v>0.01604219074098592</v>
       </c>
       <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="4">
-        <f t="shared" si="0"/>
-        <v>11773.384552578642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -843,38 +668,34 @@
         <v>1574</v>
       </c>
       <c r="F5">
-        <v>3132.3016270337921</v>
+        <v>3132.301627033792</v>
       </c>
       <c r="G5">
-        <v>2507.8864516129029</v>
+        <v>2507.886451612903</v>
       </c>
       <c r="H5">
-        <v>624.41517542088877</v>
+        <v>624.4151754208888</v>
       </c>
       <c r="I5">
-        <v>3199.6602001424731</v>
+        <v>3199.660200142473</v>
       </c>
       <c r="J5">
-        <v>2950.5128884516971</v>
+        <v>2950.512888451697</v>
       </c>
       <c r="K5">
         <v>4.021739297627466</v>
       </c>
       <c r="L5">
-        <v>6.050970845492351E-5</v>
+        <v>6.050970845492351E-05</v>
       </c>
       <c r="M5">
-        <v>3.4732335937155218E-2</v>
+        <v>0.03473233593715522</v>
       </c>
       <c r="N5" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="4">
-        <f t="shared" si="0"/>
-        <v>21687.397636976017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -894,35 +715,31 @@
         <v>4121.753623188406</v>
       </c>
       <c r="G6">
-        <v>1844.7872340425531</v>
+        <v>1844.787234042553</v>
       </c>
       <c r="H6">
-        <v>2276.9663891458531</v>
+        <v>2276.966389145853</v>
       </c>
       <c r="I6">
         <v>4084.263175981715</v>
       </c>
       <c r="J6">
-        <v>2436.5361201199139</v>
+        <v>2436.536120119914</v>
       </c>
       <c r="K6">
-        <v>6.2746223040715314</v>
+        <v>6.274622304071531</v>
       </c>
       <c r="L6">
-        <v>1.1223868363766531E-9</v>
+        <v>1.122386836376653E-09</v>
       </c>
       <c r="M6">
-        <v>7.1936096032481573E-3</v>
+        <v>0.007193609603248157</v>
       </c>
       <c r="N6" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="4">
-        <f t="shared" si="0"/>
-        <v>16379.60728323289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -939,38 +756,34 @@
         <v>1117</v>
       </c>
       <c r="F7">
-        <v>2547.2200392927311</v>
+        <v>2547.220039292731</v>
       </c>
       <c r="G7">
-        <v>2108.6101973684208</v>
+        <v>2108.610197368421</v>
       </c>
       <c r="H7">
-        <v>438.60984192430942</v>
+        <v>438.6098419243094</v>
       </c>
       <c r="I7">
         <v>3023.702163626916</v>
       </c>
       <c r="J7">
-        <v>2663.0383919741221</v>
+        <v>2663.038391974122</v>
       </c>
       <c r="K7">
         <v>2.576955493292318</v>
       </c>
       <c r="L7">
-        <v>1.009511217035171E-2</v>
+        <v>0.01009511217035171</v>
       </c>
       <c r="M7">
-        <v>2.4648042720331879E-2</v>
+        <v>0.02464804272033188</v>
       </c>
       <c r="N7" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="4">
-        <f t="shared" si="0"/>
-        <v>10810.874121308392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -990,35 +803,31 @@
         <v>3249.281481481481</v>
       </c>
       <c r="G8">
-        <v>2452.9863945578231</v>
+        <v>2452.986394557823</v>
       </c>
       <c r="H8">
-        <v>796.29508692365835</v>
+        <v>796.2950869236583</v>
       </c>
       <c r="I8">
-        <v>4719.5926012698164</v>
+        <v>4719.592601269816</v>
       </c>
       <c r="J8">
-        <v>3633.9358583139451</v>
+        <v>3633.935858313945</v>
       </c>
       <c r="K8">
-        <v>2.2552583978062271</v>
+        <v>2.255258397806227</v>
       </c>
       <c r="L8">
-        <v>2.4501004890271769E-2</v>
+        <v>0.02450100489027177</v>
       </c>
       <c r="M8">
-        <v>1.244538593936184E-2</v>
+        <v>0.01244538593936184</v>
       </c>
       <c r="N8" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="4">
-        <f t="shared" si="0"/>
-        <v>9910.1996783826107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1035,38 +844,34 @@
         <v>490</v>
       </c>
       <c r="F9">
-        <v>4598.2198275862074</v>
+        <v>4598.219827586207</v>
       </c>
       <c r="G9">
-        <v>2311.3875968992252</v>
+        <v>2311.387596899225</v>
       </c>
       <c r="H9">
-        <v>2286.8322306869818</v>
+        <v>2286.832230686982</v>
       </c>
       <c r="I9">
-        <v>2931.2349256860789</v>
+        <v>2931.234925686079</v>
       </c>
       <c r="J9">
-        <v>2371.7712956261339</v>
+        <v>2371.771295626134</v>
       </c>
       <c r="K9">
-        <v>9.5328379164110402</v>
+        <v>9.53283791641104</v>
       </c>
       <c r="L9">
-        <v>7.2225189745714525E-20</v>
+        <v>7.222518974571453E-20</v>
       </c>
       <c r="M9">
-        <v>1.081248069199876E-2</v>
+        <v>0.01081248069199876</v>
       </c>
       <c r="N9" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="4">
-        <f t="shared" si="0"/>
-        <v>24726.329340143442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1083,38 +888,34 @@
         <v>478</v>
       </c>
       <c r="F10">
-        <v>3104.5066666666671</v>
+        <v>3104.506666666667</v>
       </c>
       <c r="G10">
         <v>1752.608695652174</v>
       </c>
       <c r="H10">
-        <v>1351.8979710144929</v>
+        <v>1351.897971014493</v>
       </c>
       <c r="I10">
-        <v>2956.8269145922541</v>
+        <v>2956.826914592254</v>
       </c>
       <c r="J10">
         <v>2529.700798122044</v>
       </c>
       <c r="K10">
-        <v>5.3862649969282721</v>
+        <v>5.386264996928272</v>
       </c>
       <c r="L10">
-        <v>1.1327785130388309E-7</v>
+        <v>1.132778513038831E-07</v>
       </c>
       <c r="M10">
-        <v>1.0547685246480429E-2</v>
+        <v>0.01054768524648043</v>
       </c>
       <c r="N10" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="4">
-        <f t="shared" si="0"/>
-        <v>14259.394283616393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1131,38 +932,34 @@
         <v>408</v>
       </c>
       <c r="F11">
-        <v>2762.2242990654199</v>
+        <v>2762.22429906542</v>
       </c>
       <c r="G11">
-        <v>1508.8350515463919</v>
+        <v>1508.835051546392</v>
       </c>
       <c r="H11">
-        <v>1253.3892475190289</v>
+        <v>1253.389247519029</v>
       </c>
       <c r="I11">
-        <v>2977.0835472163549</v>
+        <v>2977.083547216355</v>
       </c>
       <c r="J11">
-        <v>2184.8080940632258</v>
+        <v>2184.808094063226</v>
       </c>
       <c r="K11">
-        <v>4.8066661954145689</v>
+        <v>4.806666195414569</v>
       </c>
       <c r="L11">
-        <v>2.1646756758588111E-6</v>
+        <v>2.164675675858811E-06</v>
       </c>
       <c r="M11">
-        <v>9.0030451476234615E-3</v>
+        <v>0.009003045147623462</v>
       </c>
       <c r="N11" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>11284.319982959616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1179,62 +976,31 @@
         <v>272</v>
       </c>
       <c r="F12">
-        <v>1987.3282442748091</v>
+        <v>1987.328244274809</v>
       </c>
       <c r="G12">
-        <v>860.41843971631204</v>
+        <v>860.418439716312</v>
       </c>
       <c r="H12">
-        <v>1126.9098045584969</v>
+        <v>1126.909804558497</v>
       </c>
       <c r="I12">
-        <v>2718.5026632115769</v>
+        <v>2718.502663211577</v>
       </c>
       <c r="J12">
-        <v>1840.8266394516061</v>
+        <v>1840.826639451606</v>
       </c>
       <c r="K12">
-        <v>4.0279507279668927</v>
+        <v>4.027950727966893</v>
       </c>
       <c r="L12">
-        <v>7.3187580909933576E-5</v>
+        <v>7.318758090993358E-05</v>
       </c>
       <c r="M12">
-        <v>6.0020300984156404E-3</v>
+        <v>0.00600203009841564</v>
       </c>
       <c r="N12" t="s">
         <v>19</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>6763.7465651597859</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O13" s="5">
-        <f>SUM(O2:O12)</f>
-        <v>187314.04811122993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="10">
-        <f>O13</f>
-        <v>187314.04811122993</v>
       </c>
     </row>
   </sheetData>
@@ -1243,32 +1009,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1329,38 +1077,34 @@
         <v>290</v>
       </c>
       <c r="F2">
-        <v>1415.7843137254899</v>
+        <v>1415.78431372549</v>
       </c>
       <c r="G2">
         <v>1968.693430656934</v>
       </c>
       <c r="H2">
-        <v>-552.90911693144403</v>
+        <v>-552.909116931444</v>
       </c>
       <c r="I2">
         <v>2038.164247362316</v>
       </c>
       <c r="J2">
-        <v>2403.3978568404691</v>
+        <v>2403.397856840469</v>
       </c>
       <c r="K2">
         <v>-2.1191969117156</v>
       </c>
       <c r="L2">
-        <v>3.4929468998951822E-2</v>
+        <v>0.03492946899895182</v>
       </c>
       <c r="M2">
-        <v>6.3992232666931466E-3</v>
+        <v>0.006399223266693147</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="O2">
-        <f>$G$9*H2*M2</f>
-        <v>-3538.1888854344584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1377,38 +1121,34 @@
         <v>1360</v>
       </c>
       <c r="F3">
-        <v>2288.8706240487058</v>
+        <v>2288.870624048706</v>
       </c>
       <c r="G3">
-        <v>2601.7610241820771</v>
+        <v>2601.761024182077</v>
       </c>
       <c r="H3">
-        <v>-312.89040013337029</v>
+        <v>-312.8904001333703</v>
       </c>
       <c r="I3">
-        <v>2682.5676104733511</v>
+        <v>2682.567610473351</v>
       </c>
       <c r="J3">
-        <v>2830.1937733415261</v>
+        <v>2830.193773341526</v>
       </c>
       <c r="K3">
-        <v>-2.0892718943323438</v>
+        <v>-2.089271894332344</v>
       </c>
       <c r="L3">
-        <v>3.6868999280986539E-2</v>
+        <v>0.03686899928098654</v>
       </c>
       <c r="M3">
-        <v>3.00101504920782E-2</v>
+        <v>0.0300101504920782</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O4" si="0">$G$9*H3*M3</f>
-        <v>-9389.8879955290085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1425,61 +1165,31 @@
         <v>1654</v>
       </c>
       <c r="F4">
-        <v>2176.0038216560511</v>
+        <v>2176.003821656051</v>
       </c>
       <c r="G4">
-        <v>2523.5788262370538</v>
+        <v>2523.578826237054</v>
       </c>
       <c r="H4">
-        <v>-347.57500458100321</v>
+        <v>-347.5750045810032</v>
       </c>
       <c r="I4">
-        <v>2722.6244937401698</v>
+        <v>2722.62449374017</v>
       </c>
       <c r="J4">
-        <v>2960.3523376384092</v>
+        <v>2960.352337638409</v>
       </c>
       <c r="K4">
         <v>-2.476736308530425</v>
       </c>
       <c r="L4">
-        <v>1.33584476189182E-2</v>
+        <v>0.0133584476189182</v>
       </c>
       <c r="M4">
-        <v>3.649763890727746E-2</v>
+        <v>0.03649763890727746</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>-12685.667010392764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O5">
-        <f>SUM(O2:O4)</f>
-        <v>-25613.743891356229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="11">
-        <f>O5</f>
-        <v>-25613.743891356229</v>
       </c>
     </row>
   </sheetData>
@@ -1488,34 +1198,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,17 +1248,8 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1585,38 +1266,34 @@
         <v>2115</v>
       </c>
       <c r="F2">
-        <v>2501.9662288930581</v>
+        <v>2501.966228893058</v>
       </c>
       <c r="G2">
-        <v>2420.4156339370829</v>
+        <v>2420.415633937083</v>
       </c>
       <c r="H2">
-        <v>81.550594955975157</v>
+        <v>81.55059495597516</v>
       </c>
       <c r="I2">
-        <v>2993.4425401386588</v>
+        <v>2993.442540138659</v>
       </c>
       <c r="J2">
-        <v>2890.0880442331768</v>
+        <v>2890.088044233177</v>
       </c>
       <c r="K2">
-        <v>0.63723837761386015</v>
+        <v>0.6372383776138602</v>
       </c>
       <c r="L2">
         <v>0.5240386192152271</v>
       </c>
       <c r="M2">
-        <v>4.6670197272606913E-2</v>
+        <v>0.04667019727260691</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="14">
-        <f>16*I2*I2/($Q$1^2)</f>
-        <v>143.3711718577886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1633,38 +1310,34 @@
         <v>1335</v>
       </c>
       <c r="F3">
-        <v>2488.1150306748468</v>
+        <v>2488.115030674847</v>
       </c>
       <c r="G3">
-        <v>2776.2415812591512</v>
+        <v>2776.241581259151</v>
       </c>
       <c r="H3">
-        <v>-288.12655058430391</v>
+        <v>-288.1265505843039</v>
       </c>
       <c r="I3">
-        <v>2778.1791825699452</v>
+        <v>2778.179182569945</v>
       </c>
       <c r="J3">
-        <v>3057.0408983944299</v>
+        <v>3057.04089839443</v>
       </c>
       <c r="K3">
-        <v>-1.7995882822085669</v>
+        <v>-1.799588282208567</v>
       </c>
       <c r="L3">
-        <v>7.2151736687701182E-2</v>
+        <v>0.07215173668770118</v>
       </c>
       <c r="M3">
-        <v>2.9458493313915E-2</v>
+        <v>0.029458493313915</v>
       </c>
       <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="14">
-        <f t="shared" ref="O3:O38" si="0">16*I3*I3/($Q$1^2)</f>
-        <v>123.49247312744014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1681,38 +1354,34 @@
         <v>1212</v>
       </c>
       <c r="F4">
-        <v>2582.2975999999999</v>
+        <v>2582.2976</v>
       </c>
       <c r="G4">
-        <v>2592.0868824531522</v>
+        <v>2592.086882453152</v>
       </c>
       <c r="H4">
-        <v>-9.7892824531518272</v>
+        <v>-9.789282453151827</v>
       </c>
       <c r="I4">
-        <v>2835.0045031864101</v>
+        <v>2835.00450318641</v>
       </c>
       <c r="J4">
-        <v>2813.8673296894899</v>
+        <v>2813.86732968949</v>
       </c>
       <c r="K4">
-        <v>-6.0293822048770103E-2</v>
+        <v>-0.0602938220487701</v>
       </c>
       <c r="L4">
-        <v>0.95193157884048474</v>
+        <v>0.9519315788404847</v>
       </c>
       <c r="M4">
-        <v>2.6744339997352051E-2</v>
+        <v>0.02674433999735205</v>
       </c>
       <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="14">
-        <f t="shared" si="0"/>
-        <v>128.59600852939559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1729,13 +1398,13 @@
         <v>478</v>
       </c>
       <c r="F5">
-        <v>2706.2791666666672</v>
+        <v>2706.279166666667</v>
       </c>
       <c r="G5">
-        <v>3003.7899159663871</v>
+        <v>3003.789915966387</v>
       </c>
       <c r="H5">
-        <v>-297.51074929971992</v>
+        <v>-297.5107492997199</v>
       </c>
       <c r="I5">
         <v>2814.939848860397</v>
@@ -1744,23 +1413,19 @@
         <v>3077.161555456405</v>
       </c>
       <c r="K5">
-        <v>-1.1030469632135029</v>
+        <v>-1.103046963213503</v>
       </c>
       <c r="L5">
-        <v>0.27056412338428698</v>
+        <v>0.270564123384287</v>
       </c>
       <c r="M5">
-        <v>1.0547685246480429E-2</v>
+        <v>0.01054768524648043</v>
       </c>
       <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="14">
-        <f t="shared" si="0"/>
-        <v>126.78218164323512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1783,33 +1448,28 @@
         <v>1760.296803652968</v>
       </c>
       <c r="H6">
-        <v>-165.86029571646009</v>
+        <v>-165.8602957164601</v>
       </c>
       <c r="I6">
-        <v>2683.7272105777288</v>
+        <v>2683.727210577729</v>
       </c>
       <c r="J6">
-        <v>2815.0931706853548</v>
+        <v>2815.093170685355</v>
       </c>
       <c r="K6">
-        <v>-1.0809980739111431</v>
+        <v>-1.080998073911143</v>
       </c>
       <c r="L6">
-        <v>0.27990080188577682</v>
+        <v>0.2799008018857768</v>
       </c>
       <c r="M6">
-        <v>2.8399311531841651E-2</v>
+        <v>0.02839931153184165</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="14">
-        <f t="shared" si="0"/>
-        <v>115.23826785272507</v>
-      </c>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1832,32 +1492,28 @@
         <v>2299.768328445748</v>
       </c>
       <c r="H7">
-        <v>151.22271633037141</v>
+        <v>151.2227163303714</v>
       </c>
       <c r="I7">
-        <v>2865.6073558468502</v>
+        <v>2865.60735584685</v>
       </c>
       <c r="J7">
-        <v>2878.7741665599151</v>
+        <v>2878.774166559915</v>
       </c>
       <c r="K7">
         <v>0.6844157524958373</v>
       </c>
       <c r="L7">
-        <v>0.49394793518322921</v>
+        <v>0.4939479351832292</v>
       </c>
       <c r="M7">
-        <v>1.4916810097532989E-2</v>
+        <v>0.01491681009753299</v>
       </c>
       <c r="N7" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="14">
-        <f t="shared" si="0"/>
-        <v>131.38728828613722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1877,35 +1533,31 @@
         <v>2977.629310344827</v>
       </c>
       <c r="G8">
-        <v>2857.0588235294122</v>
+        <v>2857.058823529412</v>
       </c>
       <c r="H8">
-        <v>120.57048681541571</v>
+        <v>120.5704868154157</v>
       </c>
       <c r="I8">
-        <v>2905.4943623590088</v>
+        <v>2905.494362359009</v>
       </c>
       <c r="J8">
-        <v>2845.2455978832868</v>
+        <v>2845.245597883287</v>
       </c>
       <c r="K8">
-        <v>0.46236920864028402</v>
+        <v>0.462369208640284</v>
       </c>
       <c r="L8">
-        <v>0.64402393024559546</v>
+        <v>0.6440239302455955</v>
       </c>
       <c r="M8">
-        <v>1.0746281830619179E-2</v>
+        <v>0.01074628183061918</v>
       </c>
       <c r="N8" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="14">
-        <f t="shared" si="0"/>
-        <v>135.07035983519975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1922,38 +1574,34 @@
         <v>437</v>
       </c>
       <c r="F9">
-        <v>2925.1422222222218</v>
+        <v>2925.142222222222</v>
       </c>
       <c r="G9">
-        <v>2980.1556603773579</v>
+        <v>2980.155660377358</v>
       </c>
       <c r="H9">
         <v>-55.0134381551361</v>
       </c>
       <c r="I9">
-        <v>2774.2920633734361</v>
+        <v>2774.292063373436</v>
       </c>
       <c r="J9">
         <v>3049.074475271108</v>
       </c>
       <c r="K9">
-        <v>-0.19745680498347551</v>
+        <v>-0.1974568049834755</v>
       </c>
       <c r="L9">
-        <v>0.84356231197415732</v>
+        <v>0.8435623119741573</v>
       </c>
       <c r="M9">
-        <v>9.6429674742927757E-3</v>
+        <v>0.009642967474292776</v>
       </c>
       <c r="N9" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="14">
-        <f t="shared" si="0"/>
-        <v>123.14714324634942</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1973,35 +1621,31 @@
         <v>2618.949685534591</v>
       </c>
       <c r="G10">
-        <v>2495.4550898203588</v>
+        <v>2495.455089820359</v>
       </c>
       <c r="H10">
-        <v>123.49459571423181</v>
+        <v>123.4945957142318</v>
       </c>
       <c r="I10">
         <v>2899.782464121165</v>
       </c>
       <c r="J10">
-        <v>2893.8624077552731</v>
+        <v>2893.862407755273</v>
       </c>
       <c r="K10">
-        <v>0.38475547263205367</v>
+        <v>0.3847554726320537</v>
       </c>
       <c r="L10">
-        <v>0.70067102143357518</v>
+        <v>0.7006710214335752</v>
       </c>
       <c r="M10">
-        <v>7.1936096032481573E-3</v>
+        <v>0.007193609603248157</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="14">
-        <f t="shared" si="0"/>
-        <v>134.53981342759386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2018,38 +1662,34 @@
         <v>189</v>
       </c>
       <c r="F11">
-        <v>1229.6442307692309</v>
+        <v>1229.644230769231</v>
       </c>
       <c r="G11">
         <v>1385.094117647059</v>
       </c>
       <c r="H11">
-        <v>-155.44988687782799</v>
+        <v>-155.449886877828</v>
       </c>
       <c r="I11">
-        <v>2208.2278398271678</v>
+        <v>2208.227839827168</v>
       </c>
       <c r="J11">
-        <v>2443.5731917455109</v>
+        <v>2443.573191745511</v>
       </c>
       <c r="K11">
-        <v>-0.45885730619405241</v>
+        <v>-0.4588573061940524</v>
       </c>
       <c r="L11">
-        <v>0.64686952030544964</v>
+        <v>0.6468695203054496</v>
       </c>
       <c r="M11">
-        <v>4.1705282669138094E-3</v>
+        <v>0.004170528266913809</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="14">
-        <f t="shared" si="0"/>
-        <v>78.020323081404158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2069,35 +1709,31 @@
         <v>2613.683544303798</v>
       </c>
       <c r="G12">
-        <v>2688.2302158273378</v>
+        <v>2688.230215827338</v>
       </c>
       <c r="H12">
-        <v>-74.546671523540681</v>
+        <v>-74.54667152354068</v>
       </c>
       <c r="I12">
-        <v>2712.2358586268451</v>
+        <v>2712.235858626845</v>
       </c>
       <c r="J12">
-        <v>3292.9376410463801</v>
+        <v>3292.93764104638</v>
       </c>
       <c r="K12">
-        <v>-0.27739869767570208</v>
+        <v>-0.2773986976757021</v>
       </c>
       <c r="L12">
-        <v>0.78158572976611407</v>
+        <v>0.7815857297661141</v>
       </c>
       <c r="M12">
-        <v>1.136413787016197E-2</v>
+        <v>0.01136413787016197</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="14">
-        <f t="shared" si="0"/>
-        <v>117.6995736451408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2120,32 +1756,28 @@
         <v>1639.857324840764</v>
       </c>
       <c r="H13">
-        <v>-36.862318598567072</v>
+        <v>-36.86231859856707</v>
       </c>
       <c r="I13">
-        <v>2518.8292052012698</v>
+        <v>2518.82920520127</v>
       </c>
       <c r="J13">
-        <v>2686.3174166097551</v>
+        <v>2686.317416609755</v>
       </c>
       <c r="K13">
-        <v>-0.28196520087867383</v>
+        <v>-0.2819652008786738</v>
       </c>
       <c r="L13">
-        <v>0.77800702736032634</v>
+        <v>0.7780070273603263</v>
       </c>
       <c r="M13">
-        <v>3.4997131382673553E-2</v>
+        <v>0.03499713138267355</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="14">
-        <f t="shared" si="0"/>
-        <v>101.51200903959777</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2165,35 +1797,31 @@
         <v>2813.168246445498</v>
       </c>
       <c r="G14">
-        <v>2739.3627204030231</v>
+        <v>2739.362720403023</v>
       </c>
       <c r="H14">
-        <v>73.805526042474867</v>
+        <v>73.80552604247487</v>
       </c>
       <c r="I14">
-        <v>3196.8888606429418</v>
+        <v>3196.888860642942</v>
       </c>
       <c r="J14">
-        <v>2446.9750361819461</v>
+        <v>2446.975036181946</v>
       </c>
       <c r="K14">
-        <v>0.36933742527752028</v>
+        <v>0.3693374252775203</v>
       </c>
       <c r="L14">
-        <v>0.71197193509754264</v>
+        <v>0.7119719350975426</v>
       </c>
       <c r="M14">
-        <v>1.8072289156626509E-2</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="14">
-        <f t="shared" si="0"/>
-        <v>163.52157419684684</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2210,38 +1838,34 @@
         <v>288</v>
       </c>
       <c r="F15">
-        <v>1859.7770270270271</v>
+        <v>1859.777027027027</v>
       </c>
       <c r="G15">
         <v>1804.25</v>
       </c>
       <c r="H15">
-        <v>55.527027027027088</v>
+        <v>55.52702702702709</v>
       </c>
       <c r="I15">
         <v>2568.980429381179</v>
       </c>
       <c r="J15">
-        <v>3015.7266304677269</v>
+        <v>3015.726630467727</v>
       </c>
       <c r="K15">
-        <v>0.16850596566670989</v>
+        <v>0.1685059656667099</v>
       </c>
       <c r="L15">
-        <v>0.86630435550570684</v>
+        <v>0.8663043555057068</v>
       </c>
       <c r="M15">
-        <v>6.3550906924400904E-3</v>
+        <v>0.00635509069244009</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="14">
-        <f t="shared" si="0"/>
-        <v>105.5945671446961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2261,13 +1885,13 @@
         <v>1702.439577039275</v>
       </c>
       <c r="G16">
-        <v>1528.3251088534109</v>
+        <v>1528.325108853411</v>
       </c>
       <c r="H16">
         <v>174.1144681858643</v>
       </c>
       <c r="I16">
-        <v>2453.9017173783341</v>
+        <v>2453.901717378334</v>
       </c>
       <c r="J16">
         <v>2338.522063325961</v>
@@ -2276,20 +1900,16 @@
         <v>1.335377321119084</v>
       </c>
       <c r="L16">
-        <v>0.18197815948321541</v>
+        <v>0.1819781594832154</v>
       </c>
       <c r="M16">
-        <v>2.981155390793945E-2</v>
+        <v>0.02981155390793945</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="14">
-        <f t="shared" si="0"/>
-        <v>96.346138216837389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2309,35 +1929,31 @@
         <v>1976.854961832061</v>
       </c>
       <c r="G17">
-        <v>1856.9444444444439</v>
+        <v>1856.944444444444</v>
       </c>
       <c r="H17">
-        <v>119.91051738761669</v>
+        <v>119.9105173876167</v>
       </c>
       <c r="I17">
         <v>2605.797427400727</v>
       </c>
       <c r="J17">
-        <v>2442.3261657052421</v>
+        <v>2442.326165705242</v>
       </c>
       <c r="K17">
-        <v>0.36418256697602858</v>
+        <v>0.3641825669760286</v>
       </c>
       <c r="L17">
-        <v>0.71604638423203104</v>
+        <v>0.716046384232031</v>
       </c>
       <c r="M17">
-        <v>5.2738426232402137E-3</v>
+        <v>0.005273842623240214</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="14">
-        <f t="shared" si="0"/>
-        <v>108.64288372237195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2354,38 +1970,34 @@
         <v>1724</v>
       </c>
       <c r="F18">
-        <v>2517.3305687203788</v>
+        <v>2517.330568720379</v>
       </c>
       <c r="G18">
-        <v>2511.9727272727268</v>
+        <v>2511.972727272727</v>
       </c>
       <c r="H18">
-        <v>5.3578414476519356</v>
+        <v>5.357841447651936</v>
       </c>
       <c r="I18">
-        <v>2797.1230332385999</v>
+        <v>2797.1230332386</v>
       </c>
       <c r="J18">
-        <v>2824.7199322235679</v>
+        <v>2824.719932223568</v>
       </c>
       <c r="K18">
-        <v>3.9558086467205961E-2</v>
+        <v>0.03955808646720596</v>
       </c>
       <c r="L18">
-        <v>0.96845002895143795</v>
+        <v>0.9684500289514379</v>
       </c>
       <c r="M18">
-        <v>3.8042279006134418E-2</v>
+        <v>0.03804227900613442</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="14">
-        <f t="shared" si="0"/>
-        <v>125.18235620918249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2402,38 +2014,34 @@
         <v>398</v>
       </c>
       <c r="F19">
-        <v>2586.0118343195272</v>
+        <v>2586.011834319527</v>
       </c>
       <c r="G19">
-        <v>2655.6724890829701</v>
+        <v>2655.67248908297</v>
       </c>
       <c r="H19">
-        <v>-69.660654763442835</v>
+        <v>-69.66065476344284</v>
       </c>
       <c r="I19">
-        <v>2676.4355627004538</v>
+        <v>2676.435562700454</v>
       </c>
       <c r="J19">
-        <v>2929.3636863964948</v>
+        <v>2929.363686396495</v>
       </c>
       <c r="K19">
         <v>-0.2431728557168128</v>
       </c>
       <c r="L19">
-        <v>0.80799740556960586</v>
+        <v>0.8079974055696059</v>
       </c>
       <c r="M19">
-        <v>8.7823822763581794E-3</v>
+        <v>0.008782382276358179</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="14">
-        <f t="shared" si="0"/>
-        <v>114.61291714060313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2453,35 +2061,31 @@
         <v>2902.410526315789</v>
       </c>
       <c r="G20">
-        <v>2439.4610778443121</v>
+        <v>2439.461077844312</v>
       </c>
       <c r="H20">
-        <v>462.94944847147781</v>
+        <v>462.9494484714778</v>
       </c>
       <c r="I20">
-        <v>3074.6488868920251</v>
+        <v>3074.648886892025</v>
       </c>
       <c r="J20">
         <v>2689.343053091382</v>
       </c>
       <c r="K20">
-        <v>1.5045563456740749</v>
+        <v>1.504556345674075</v>
       </c>
       <c r="L20">
         <v>0.1333273246710206</v>
       </c>
       <c r="M20">
-        <v>7.8776645041705277E-3</v>
+        <v>0.007877664504170528</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="14">
-        <f t="shared" si="0"/>
-        <v>151.25545244266192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2498,38 +2102,34 @@
         <v>847</v>
       </c>
       <c r="F21">
-        <v>2109.1066350710898</v>
+        <v>2109.10663507109</v>
       </c>
       <c r="G21">
-        <v>2111.2729411764708</v>
+        <v>2111.272941176471</v>
       </c>
       <c r="H21">
-        <v>-2.1663061053809538</v>
+        <v>-2.166306105380954</v>
       </c>
       <c r="I21">
-        <v>2790.9933852461859</v>
+        <v>2790.993385246186</v>
       </c>
       <c r="J21">
         <v>2804.223188242775</v>
       </c>
       <c r="K21">
-        <v>-1.126774587434534E-2</v>
+        <v>-0.01126774587434534</v>
       </c>
       <c r="L21">
-        <v>0.99101248941204068</v>
+        <v>0.9910124894120407</v>
       </c>
       <c r="M21">
-        <v>1.8690145196169291E-2</v>
+        <v>0.01869014519616929</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="14">
-        <f t="shared" si="0"/>
-        <v>124.63430522380744</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2546,38 +2146,34 @@
         <v>1273</v>
       </c>
       <c r="F22">
-        <v>1702.7140600315961</v>
+        <v>1702.714060031596</v>
       </c>
       <c r="G22">
         <v>1688.5125</v>
       </c>
       <c r="H22">
-        <v>14.201560031595591</v>
+        <v>14.20156003159559</v>
       </c>
       <c r="I22">
         <v>2565.132439533983</v>
       </c>
       <c r="J22">
-        <v>2628.0124903233682</v>
+        <v>2628.012490323368</v>
       </c>
       <c r="K22">
-        <v>9.7555656950156625E-2</v>
+        <v>0.09755565695015662</v>
       </c>
       <c r="L22">
-        <v>0.92230051833342097</v>
+        <v>0.922300518333421</v>
       </c>
       <c r="M22">
-        <v>2.8090383512070261E-2</v>
+        <v>0.02809038351207026</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="14">
-        <f t="shared" si="0"/>
-        <v>105.278470917593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2600,7 +2196,7 @@
         <v>2222.052173913044</v>
       </c>
       <c r="H23">
-        <v>-77.735141872571603</v>
+        <v>-77.7351418725716</v>
       </c>
       <c r="I23">
         <v>2708.58872398012</v>
@@ -2609,23 +2205,19 @@
         <v>2785.116250157233</v>
       </c>
       <c r="K23">
-        <v>-0.48358538550993968</v>
+        <v>-0.4835853855099397</v>
       </c>
       <c r="L23">
-        <v>0.62877094764054164</v>
+        <v>0.6287709476405416</v>
       </c>
       <c r="M23">
-        <v>2.5773423363784811E-2</v>
+        <v>0.02577342336378481</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="14">
-        <f t="shared" si="0"/>
-        <v>117.38324601075608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2645,35 +2237,31 @@
         <v>2285.75</v>
       </c>
       <c r="G24">
-        <v>2431.3653032440061</v>
+        <v>2431.365303244006</v>
       </c>
       <c r="H24">
-        <v>-145.61530324400559</v>
+        <v>-145.6153032440056</v>
       </c>
       <c r="I24">
         <v>2712.677878262808</v>
       </c>
       <c r="J24">
-        <v>2868.5875686413829</v>
+        <v>2868.587568641383</v>
       </c>
       <c r="K24">
-        <v>-0.98170546685316118</v>
+        <v>-0.9817054668531612</v>
       </c>
       <c r="L24">
-        <v>0.32641278977933119</v>
+        <v>0.3264127897793312</v>
       </c>
       <c r="M24">
-        <v>3.1267928858290307E-2</v>
+        <v>0.03126792885829031</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="14">
-        <f t="shared" si="0"/>
-        <v>117.73794033946257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2696,10 +2284,10 @@
         <v>2730.378761061947</v>
       </c>
       <c r="H25">
-        <v>196.96243676019461</v>
+        <v>196.9624367601946</v>
       </c>
       <c r="I25">
-        <v>2956.6862414948841</v>
+        <v>2956.686241494884</v>
       </c>
       <c r="J25">
         <v>2737.885785163031</v>
@@ -2708,20 +2296,16 @@
         <v>1.155072918440385</v>
       </c>
       <c r="L25">
-        <v>0.24830826390447139</v>
+        <v>0.2483082639044714</v>
       </c>
       <c r="M25">
-        <v>2.4625976433205351E-2</v>
+        <v>0.02462597643320535</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
       </c>
-      <c r="O25" s="14">
-        <f t="shared" si="0"/>
-        <v>139.87189649032231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2741,35 +2325,31 @@
         <v>2404.106153846154</v>
       </c>
       <c r="G26">
-        <v>2545.7348754448399</v>
+        <v>2545.73487544484</v>
       </c>
       <c r="H26">
-        <v>-141.62872159868579</v>
+        <v>-141.6287215986858</v>
       </c>
       <c r="I26">
-        <v>2810.8284873546108</v>
+        <v>2810.828487354611</v>
       </c>
       <c r="J26">
-        <v>2797.1387639335098</v>
+        <v>2797.13876393351</v>
       </c>
       <c r="K26">
-        <v>-0.87674037193140586</v>
+        <v>-0.8767403719314059</v>
       </c>
       <c r="L26">
         <v>0.3808017001028422</v>
       </c>
       <c r="M26">
-        <v>2.6744339997352051E-2</v>
+        <v>0.02674433999735205</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="14">
-        <f t="shared" si="0"/>
-        <v>126.41210856518735</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2786,38 +2366,34 @@
         <v>1024</v>
       </c>
       <c r="F27">
-        <v>2499.3457943925232</v>
+        <v>2499.345794392523</v>
       </c>
       <c r="G27">
         <v>2185.21472392638</v>
       </c>
       <c r="H27">
-        <v>314.13107046614277</v>
+        <v>314.1310704661428</v>
       </c>
       <c r="I27">
         <v>2915.995328953642</v>
       </c>
       <c r="J27">
-        <v>2574.9155972376102</v>
+        <v>2574.91559723761</v>
       </c>
       <c r="K27">
-        <v>1.8202681201948649</v>
+        <v>1.820268120194865</v>
       </c>
       <c r="L27">
-        <v>6.9010560745835017E-2</v>
+        <v>0.06901056074583502</v>
       </c>
       <c r="M27">
-        <v>2.2595878017564769E-2</v>
+        <v>0.02259587801756477</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="14">
-        <f t="shared" si="0"/>
-        <v>136.04846013567135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2840,32 +2416,28 @@
         <v>2496.987046632124</v>
       </c>
       <c r="H28">
-        <v>-237.36400998290989</v>
+        <v>-237.3640099829099</v>
       </c>
       <c r="I28">
-        <v>3482.8460937348041</v>
+        <v>3482.846093734804</v>
       </c>
       <c r="J28">
-        <v>3881.9947185225419</v>
+        <v>3881.994718522542</v>
       </c>
       <c r="K28">
-        <v>-0.89159336291986235</v>
+        <v>-0.8915933629198624</v>
       </c>
       <c r="L28">
-        <v>0.37289090359186572</v>
+        <v>0.3728909035918657</v>
       </c>
       <c r="M28">
-        <v>1.694690851317357E-2</v>
+        <v>0.01694690851317357</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="14">
-        <f t="shared" si="0"/>
-        <v>194.08347060230054</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2882,38 +2454,34 @@
         <v>706</v>
       </c>
       <c r="F29">
-        <v>2481.9605633802821</v>
+        <v>2481.960563380282</v>
       </c>
       <c r="G29">
         <v>2400.635327635327</v>
       </c>
       <c r="H29">
-        <v>81.325235744954171</v>
+        <v>81.32523574495417</v>
       </c>
       <c r="I29">
         <v>4040.441006810277</v>
       </c>
       <c r="J29">
-        <v>3722.1170724360331</v>
+        <v>3722.117072436033</v>
       </c>
       <c r="K29">
-        <v>0.27806735037805058</v>
+        <v>0.2780673503780506</v>
       </c>
       <c r="L29">
-        <v>0.78104230354142801</v>
+        <v>0.781042303541428</v>
       </c>
       <c r="M29">
-        <v>1.5578798711328831E-2</v>
+        <v>0.01557879871132883</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="14">
-        <f t="shared" si="0"/>
-        <v>261.20261647222469</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2930,38 +2498,34 @@
         <v>793</v>
       </c>
       <c r="F30">
-        <v>2621.4270557029181</v>
+        <v>2621.427055702918</v>
       </c>
       <c r="G30">
-        <v>2635.5480769230771</v>
+        <v>2635.548076923077</v>
       </c>
       <c r="H30">
         <v>-14.12102122015949</v>
       </c>
       <c r="I30">
-        <v>3714.8947510376902</v>
+        <v>3714.89475103769</v>
       </c>
       <c r="J30">
-        <v>4639.8207461839993</v>
+        <v>4639.820746183999</v>
       </c>
       <c r="K30">
-        <v>-4.6997059757738192E-2</v>
+        <v>-0.04699705975773819</v>
       </c>
       <c r="L30">
-        <v>0.96252743362660054</v>
+        <v>0.9625274336266005</v>
       </c>
       <c r="M30">
-        <v>1.749856569133678E-2</v>
+        <v>0.01749856569133678</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="14">
-        <f t="shared" si="0"/>
-        <v>220.8070881805981</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2981,7 +2545,7 @@
         <v>2422.286307053942</v>
       </c>
       <c r="G31">
-        <v>2574.3522267206481</v>
+        <v>2574.352226720648</v>
       </c>
       <c r="H31">
         <v>-152.0659196667057</v>
@@ -2990,26 +2554,22 @@
         <v>3906.817897493851</v>
       </c>
       <c r="J31">
-        <v>4082.8513558716531</v>
+        <v>4082.851355871653</v>
       </c>
       <c r="K31">
-        <v>-0.59425382588472897</v>
+        <v>-0.594253825884729</v>
       </c>
       <c r="L31">
-        <v>0.55248035588145283</v>
+        <v>0.5524803558814528</v>
       </c>
       <c r="M31">
-        <v>2.1536696235491419E-2</v>
+        <v>0.02153669623549142</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="14">
-        <f t="shared" si="0"/>
-        <v>244.21161734685239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -3026,38 +2586,34 @@
         <v>1270</v>
       </c>
       <c r="F32">
-        <v>3237.2003154574131</v>
+        <v>3237.200315457413</v>
       </c>
       <c r="G32">
         <v>2880.48427672956</v>
       </c>
       <c r="H32">
-        <v>356.71603872785317</v>
+        <v>356.7160387278532</v>
       </c>
       <c r="I32">
-        <v>4537.1038422947422</v>
+        <v>4537.103842294742</v>
       </c>
       <c r="J32">
         <v>3819.292813470583</v>
       </c>
       <c r="K32">
-        <v>1.5158873899080001</v>
+        <v>1.515887389908</v>
       </c>
       <c r="L32">
-        <v>0.12979706851619149</v>
+        <v>0.1297970685161915</v>
       </c>
       <c r="M32">
-        <v>2.8024184650690679E-2</v>
+        <v>0.02802418465069068</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="14">
-        <f t="shared" si="0"/>
-        <v>329.36498041225144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3074,10 +2630,10 @@
         <v>1248</v>
       </c>
       <c r="F33">
-        <v>2371.4334975369461</v>
+        <v>2371.433497536946</v>
       </c>
       <c r="G33">
-        <v>2523.3755868544599</v>
+        <v>2523.37558685446</v>
       </c>
       <c r="H33">
         <v>-151.9420893175143</v>
@@ -3086,26 +2642,22 @@
         <v>2906.824457531357</v>
       </c>
       <c r="J33">
-        <v>2795.9171755336042</v>
+        <v>2795.917175533604</v>
       </c>
       <c r="K33">
-        <v>-0.94123363535756777</v>
+        <v>-0.9412336353575678</v>
       </c>
       <c r="L33">
         <v>0.3467675852041211</v>
       </c>
       <c r="M33">
-        <v>2.7538726333907061E-2</v>
+        <v>0.02753872633390706</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="14">
-        <f t="shared" si="0"/>
-        <v>135.19405483043948</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -3128,32 +2680,28 @@
         <v>2521.958083832335</v>
       </c>
       <c r="H34">
-        <v>-429.77626565051742</v>
+        <v>-429.7762656505174</v>
       </c>
       <c r="I34">
-        <v>2530.2746480809969</v>
+        <v>2530.274648080997</v>
       </c>
       <c r="J34">
-        <v>2875.4596329355891</v>
+        <v>2875.459632935589</v>
       </c>
       <c r="K34">
-        <v>-1.4958446791905919</v>
+        <v>-1.495844679190592</v>
       </c>
       <c r="L34">
-        <v>0.13559014690618421</v>
+        <v>0.1355901469061842</v>
       </c>
       <c r="M34">
-        <v>7.8114656427909438E-3</v>
+        <v>0.007811465642790944</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="14">
-        <f t="shared" si="0"/>
-        <v>102.4366367155426</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -3170,38 +2718,34 @@
         <v>509</v>
       </c>
       <c r="F35">
-        <v>4407.3849372384939</v>
+        <v>4407.384937238494</v>
       </c>
       <c r="G35">
-        <v>4163.9592592592589</v>
+        <v>4163.959259259259</v>
       </c>
       <c r="H35">
-        <v>243.42567797923491</v>
+        <v>243.4256779792349</v>
       </c>
       <c r="I35">
-        <v>2737.9007251199778</v>
+        <v>2737.900725119978</v>
       </c>
       <c r="J35">
-        <v>2492.0962933115152</v>
+        <v>2492.096293311515</v>
       </c>
       <c r="K35">
-        <v>1.0499935308392909</v>
+        <v>1.049993530839291</v>
       </c>
       <c r="L35">
-        <v>0.29422131648059052</v>
+        <v>0.2942213164805905</v>
       </c>
       <c r="M35">
-        <v>1.1231740147402801E-2</v>
+        <v>0.0112317401474028</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
       </c>
-      <c r="O35" s="14">
-        <f t="shared" si="0"/>
-        <v>119.9376060898</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3218,38 +2762,34 @@
         <v>149</v>
       </c>
       <c r="F36">
-        <v>579.33333333333337</v>
+        <v>579.3333333333334</v>
       </c>
       <c r="G36">
-        <v>483.45070422535213</v>
+        <v>483.4507042253521</v>
       </c>
       <c r="H36">
-        <v>95.882629107981245</v>
+        <v>95.88262910798124</v>
       </c>
       <c r="I36">
-        <v>1860.7624304329711</v>
+        <v>1860.762430432971</v>
       </c>
       <c r="J36">
         <v>1654.923181546782</v>
       </c>
       <c r="K36">
-        <v>0.33105243476452068</v>
+        <v>0.3310524347645207</v>
       </c>
       <c r="L36">
         <v>0.7410763125801646</v>
       </c>
       <c r="M36">
-        <v>3.2878767818526849E-3</v>
+        <v>0.003287876781852685</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
       </c>
-      <c r="O36" s="14">
-        <f t="shared" si="0"/>
-        <v>55.39898916017308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -3269,7 +2809,7 @@
         <v>2043.823076923077</v>
       </c>
       <c r="G37">
-        <v>1743.3767123287671</v>
+        <v>1743.376712328767</v>
       </c>
       <c r="H37">
         <v>300.4463645943099</v>
@@ -3278,26 +2818,22 @@
         <v>2442.26678753138</v>
       </c>
       <c r="J37">
-        <v>2891.3333593759371</v>
+        <v>2891.333359375937</v>
       </c>
       <c r="K37">
-        <v>0.92645906346779439</v>
+        <v>0.9264590634677944</v>
       </c>
       <c r="L37">
-        <v>0.35502276486047568</v>
+        <v>0.3550227648604757</v>
       </c>
       <c r="M37">
-        <v>6.0902952469217529E-3</v>
+        <v>0.006090295246921753</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
       </c>
-      <c r="O37" s="14">
-        <f t="shared" si="0"/>
-        <v>95.434672983661542</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -3314,19 +2850,19 @@
         <v>153</v>
       </c>
       <c r="F38">
-        <v>1171.4533333333329</v>
+        <v>1171.453333333333</v>
       </c>
       <c r="G38">
-        <v>600.15384615384619</v>
+        <v>600.1538461538462</v>
       </c>
       <c r="H38">
-        <v>571.29948717948719</v>
+        <v>571.2994871794872</v>
       </c>
       <c r="I38">
         <v>2578.10410276325</v>
       </c>
       <c r="J38">
-        <v>1690.1397550523429</v>
+        <v>1690.139755052343</v>
       </c>
       <c r="K38">
         <v>1.627060492928311</v>
@@ -3335,14 +2871,10 @@
         <v>0.105809212549273</v>
       </c>
       <c r="M38">
-        <v>3.3761419303587979E-3</v>
+        <v>0.003376141930358798</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
-      </c>
-      <c r="O38" s="14">
-        <f t="shared" si="0"/>
-        <v>106.34593223495524</v>
       </c>
     </row>
   </sheetData>
